--- a/Code/Results/Cases/Case_0_232/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_232/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9991926437994545</v>
+        <v>1.029774912949598</v>
       </c>
       <c r="D2">
-        <v>1.007577561523826</v>
+        <v>1.032419332480934</v>
       </c>
       <c r="E2">
-        <v>1.013987187960497</v>
+        <v>1.038825699602864</v>
       </c>
       <c r="F2">
-        <v>1.020848722867224</v>
+        <v>1.048033410507566</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043872605770231</v>
+        <v>1.033087251084681</v>
       </c>
       <c r="J2">
-        <v>1.021397529596223</v>
+        <v>1.034919824371565</v>
       </c>
       <c r="K2">
-        <v>1.018932328737658</v>
+        <v>1.035224617337204</v>
       </c>
       <c r="L2">
-        <v>1.025255038515358</v>
+        <v>1.041612629256448</v>
       </c>
       <c r="M2">
-        <v>1.032025046455819</v>
+        <v>1.050794385074352</v>
       </c>
       <c r="N2">
-        <v>1.010995038487086</v>
+        <v>1.015627508519687</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003350901232727</v>
+        <v>1.030663321431301</v>
       </c>
       <c r="D3">
-        <v>1.01109683270053</v>
+        <v>1.033221146077235</v>
       </c>
       <c r="E3">
-        <v>1.017464513362427</v>
+        <v>1.039622013149809</v>
       </c>
       <c r="F3">
-        <v>1.024745299956434</v>
+        <v>1.04892939061912</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044664031995965</v>
+        <v>1.033193230826109</v>
       </c>
       <c r="J3">
-        <v>1.02375063226542</v>
+        <v>1.035449719230273</v>
       </c>
       <c r="K3">
-        <v>1.021589669406202</v>
+        <v>1.035835217861591</v>
       </c>
       <c r="L3">
-        <v>1.027878704698724</v>
+        <v>1.042219072121332</v>
       </c>
       <c r="M3">
-        <v>1.035071055308163</v>
+        <v>1.051502111559733</v>
       </c>
       <c r="N3">
-        <v>1.011789948373439</v>
+        <v>1.015804924840287</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005990350456783</v>
+        <v>1.031238729547898</v>
       </c>
       <c r="D4">
-        <v>1.013335847356487</v>
+        <v>1.033740786047126</v>
       </c>
       <c r="E4">
-        <v>1.019677595749349</v>
+        <v>1.040138149967664</v>
       </c>
       <c r="F4">
-        <v>1.027224593300222</v>
+        <v>1.049510103153897</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045155380659714</v>
+        <v>1.03326049611559</v>
       </c>
       <c r="J4">
-        <v>1.025242053882236</v>
+        <v>1.035792513870385</v>
       </c>
       <c r="K4">
-        <v>1.023275941395539</v>
+        <v>1.0362304775236</v>
       </c>
       <c r="L4">
-        <v>1.029544191590669</v>
+        <v>1.042611694556565</v>
       </c>
       <c r="M4">
-        <v>1.037005180315497</v>
+        <v>1.051960375538809</v>
       </c>
       <c r="N4">
-        <v>1.012293553695174</v>
+        <v>1.015919644888917</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007088111888087</v>
+        <v>1.031480761043106</v>
       </c>
       <c r="D5">
-        <v>1.014268268227632</v>
+        <v>1.033959435661628</v>
       </c>
       <c r="E5">
-        <v>1.020599395648784</v>
+        <v>1.040355340196899</v>
       </c>
       <c r="F5">
-        <v>1.028257136210444</v>
+        <v>1.049754461231469</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045357054160702</v>
+        <v>1.033288460060124</v>
       </c>
       <c r="J5">
-        <v>1.025861782747963</v>
+        <v>1.035936603739297</v>
       </c>
       <c r="K5">
-        <v>1.023977124153799</v>
+        <v>1.036396681729117</v>
       </c>
       <c r="L5">
-        <v>1.030236870825951</v>
+        <v>1.042776802783341</v>
       </c>
       <c r="M5">
-        <v>1.037809716993432</v>
+        <v>1.052153104253435</v>
       </c>
       <c r="N5">
-        <v>1.012502761299886</v>
+        <v>1.015967853557257</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007271746487632</v>
+        <v>1.031521406775124</v>
       </c>
       <c r="D6">
-        <v>1.014424314151514</v>
+        <v>1.033996159161883</v>
       </c>
       <c r="E6">
-        <v>1.020753674498952</v>
+        <v>1.040391819442016</v>
       </c>
       <c r="F6">
-        <v>1.028429941766408</v>
+        <v>1.049795503261074</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045390631555504</v>
+        <v>1.033293136876411</v>
       </c>
       <c r="J6">
-        <v>1.025965417672495</v>
+        <v>1.035960795796598</v>
       </c>
       <c r="K6">
-        <v>1.024094409080076</v>
+        <v>1.036424590280124</v>
       </c>
       <c r="L6">
-        <v>1.030352741559242</v>
+        <v>1.04280452806037</v>
       </c>
       <c r="M6">
-        <v>1.037944306835723</v>
+        <v>1.052185468579982</v>
       </c>
       <c r="N6">
-        <v>1.012537742982706</v>
+        <v>1.015975946840116</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006005064895894</v>
+        <v>1.031241963075784</v>
       </c>
       <c r="D7">
-        <v>1.013348340862135</v>
+        <v>1.033743706897807</v>
       </c>
       <c r="E7">
-        <v>1.019689946244132</v>
+        <v>1.04014105126556</v>
       </c>
       <c r="F7">
-        <v>1.027238428099167</v>
+        <v>1.049513367390573</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045158094539755</v>
+        <v>1.033260871007246</v>
       </c>
       <c r="J7">
-        <v>1.025250363012531</v>
+        <v>1.035794439290257</v>
       </c>
       <c r="K7">
-        <v>1.023285340702399</v>
+        <v>1.036232698208443</v>
       </c>
       <c r="L7">
-        <v>1.029553476359149</v>
+        <v>1.042613900546928</v>
       </c>
       <c r="M7">
-        <v>1.037015963920146</v>
+        <v>1.051962950498327</v>
       </c>
       <c r="N7">
-        <v>1.012296358906206</v>
+        <v>1.015920289133235</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000608798496007</v>
+        <v>1.030075040375917</v>
       </c>
       <c r="D8">
-        <v>1.008774996534973</v>
+        <v>1.032690139818247</v>
       </c>
       <c r="E8">
-        <v>1.015170191452259</v>
+        <v>1.039094636626097</v>
       </c>
       <c r="F8">
-        <v>1.022174490936514</v>
+        <v>1.048336012708718</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044144419151151</v>
+        <v>1.033123338459763</v>
       </c>
       <c r="J8">
-        <v>1.022199355531334</v>
+        <v>1.035098921245864</v>
       </c>
       <c r="K8">
-        <v>1.019837402499958</v>
+        <v>1.03543093865333</v>
       </c>
       <c r="L8">
-        <v>1.026148520135905</v>
+        <v>1.041817534491977</v>
       </c>
       <c r="M8">
-        <v>1.033062243764672</v>
+        <v>1.051033497886164</v>
       </c>
       <c r="N8">
-        <v>1.011265949865972</v>
+        <v>1.015687483528324</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9906886912762678</v>
+        <v>1.028023034378818</v>
       </c>
       <c r="D9">
-        <v>1.00041040771283</v>
+        <v>1.030839919320245</v>
       </c>
       <c r="E9">
-        <v>1.006909708289661</v>
+        <v>1.037257446880323</v>
       </c>
       <c r="F9">
-        <v>1.012914234744285</v>
+        <v>1.046268742833465</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042195429286284</v>
+        <v>1.032870976806158</v>
       </c>
       <c r="J9">
-        <v>1.016574595534462</v>
+        <v>1.033872747981782</v>
       </c>
       <c r="K9">
-        <v>1.01349682984568</v>
+        <v>1.034019422339923</v>
       </c>
       <c r="L9">
-        <v>1.019891666287235</v>
+        <v>1.040415928153544</v>
       </c>
       <c r="M9">
-        <v>1.025801205508216</v>
+        <v>1.049398182545347</v>
       </c>
       <c r="N9">
-        <v>1.009364721323162</v>
+        <v>1.015276655972096</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9837708582736335</v>
+        <v>1.026657976248269</v>
       </c>
       <c r="D10">
-        <v>0.9946088372701928</v>
+        <v>1.029610772489593</v>
       </c>
       <c r="E10">
-        <v>1.001184661663814</v>
+        <v>1.036037274880895</v>
       </c>
       <c r="F10">
-        <v>1.006492250352324</v>
+        <v>1.044895627857534</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0407810422359</v>
+        <v>1.032696040116329</v>
       </c>
       <c r="J10">
-        <v>1.012643507768255</v>
+        <v>1.033054978318899</v>
       </c>
       <c r="K10">
-        <v>1.009076117879339</v>
+        <v>1.033079355423967</v>
       </c>
       <c r="L10">
-        <v>1.01553255957077</v>
+        <v>1.039482740281818</v>
       </c>
       <c r="M10">
-        <v>1.020745266318086</v>
+        <v>1.048309741603813</v>
       </c>
       <c r="N10">
-        <v>1.008035083463602</v>
+        <v>1.015002397815572</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9806964375281118</v>
+        <v>1.026067606609266</v>
       </c>
       <c r="D11">
-        <v>0.9920385991991649</v>
+        <v>1.029079586828132</v>
       </c>
       <c r="E11">
-        <v>0.9986493983415012</v>
+        <v>1.035510043749927</v>
       </c>
       <c r="F11">
-        <v>1.003647282039357</v>
+        <v>1.044302276960854</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040139950423467</v>
+        <v>1.03261870997829</v>
       </c>
       <c r="J11">
-        <v>1.010894916289059</v>
+        <v>1.032700813648829</v>
       </c>
       <c r="K11">
-        <v>1.007112234041931</v>
+        <v>1.032672536542329</v>
       </c>
       <c r="L11">
-        <v>1.013596830057104</v>
+        <v>1.039078964605488</v>
       </c>
       <c r="M11">
-        <v>1.018500742190977</v>
+        <v>1.04783887302388</v>
       </c>
       <c r="N11">
-        <v>1.007443477179208</v>
+        <v>1.014883558062659</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9795419848877198</v>
+        <v>1.025848424971805</v>
       </c>
       <c r="D12">
-        <v>0.9910747397868372</v>
+        <v>1.028882439184785</v>
       </c>
       <c r="E12">
-        <v>0.9976988203813971</v>
+        <v>1.03531437527732</v>
       </c>
       <c r="F12">
-        <v>1.002580410500526</v>
+        <v>1.04408206459534</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039897391336757</v>
+        <v>1.032589749115616</v>
       </c>
       <c r="J12">
-        <v>1.010238129704172</v>
+        <v>1.032569252525049</v>
       </c>
       <c r="K12">
-        <v>1.00637495489213</v>
+        <v>1.032521462720734</v>
       </c>
       <c r="L12">
-        <v>1.012870240554439</v>
+        <v>1.038929030854407</v>
       </c>
       <c r="M12">
-        <v>1.017658340334011</v>
+        <v>1.047664038097418</v>
       </c>
       <c r="N12">
-        <v>1.007221242852826</v>
+        <v>1.01483940348551</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9797901937544307</v>
+        <v>1.025895435271455</v>
       </c>
       <c r="D13">
-        <v>0.9912819124865003</v>
+        <v>1.028924720830649</v>
       </c>
       <c r="E13">
-        <v>0.997903130794019</v>
+        <v>1.035356339170591</v>
       </c>
       <c r="F13">
-        <v>1.002809724168484</v>
+        <v>1.044129292514795</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039949623590911</v>
+        <v>1.03259597203467</v>
       </c>
       <c r="J13">
-        <v>1.010379347368607</v>
+        <v>1.032597473202886</v>
       </c>
       <c r="K13">
-        <v>1.006533462676213</v>
+        <v>1.032553866880649</v>
       </c>
       <c r="L13">
-        <v>1.013026444716223</v>
+        <v>1.038961190027011</v>
       </c>
       <c r="M13">
-        <v>1.017839437830722</v>
+        <v>1.047701537743474</v>
       </c>
       <c r="N13">
-        <v>1.007269027048362</v>
+        <v>1.014848875337237</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9806012683073055</v>
+        <v>1.026049486777224</v>
       </c>
       <c r="D14">
-        <v>0.9919591156705556</v>
+        <v>1.029063287302293</v>
       </c>
       <c r="E14">
-        <v>0.9985710066562107</v>
+        <v>1.035493866282993</v>
       </c>
       <c r="F14">
-        <v>1.003559303486723</v>
+        <v>1.044284070362635</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040119991511401</v>
+        <v>1.032616320895841</v>
       </c>
       <c r="J14">
-        <v>1.0108407765141</v>
+        <v>1.032689938933882</v>
       </c>
       <c r="K14">
-        <v>1.00705145158515</v>
+        <v>1.032660047974239</v>
       </c>
       <c r="L14">
-        <v>1.013536926420997</v>
+        <v>1.039066570078379</v>
       </c>
       <c r="M14">
-        <v>1.018431288467596</v>
+        <v>1.047824419746439</v>
       </c>
       <c r="N14">
-        <v>1.007425158534306</v>
+        <v>1.014879908477887</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9810993258982632</v>
+        <v>1.026144417336325</v>
       </c>
       <c r="D15">
-        <v>0.9923751361025758</v>
+        <v>1.02914868371292</v>
       </c>
       <c r="E15">
-        <v>0.9989813191153795</v>
+        <v>1.035578623672863</v>
       </c>
       <c r="F15">
-        <v>1.004019787797228</v>
+        <v>1.044379458613344</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040224370067967</v>
+        <v>1.032628827112561</v>
       </c>
       <c r="J15">
-        <v>1.01112410372154</v>
+        <v>1.032746909018462</v>
       </c>
       <c r="K15">
-        <v>1.007369556837584</v>
+        <v>1.032725474569643</v>
       </c>
       <c r="L15">
-        <v>1.013850437265623</v>
+        <v>1.039131504408855</v>
       </c>
       <c r="M15">
-        <v>1.018794784420331</v>
+        <v>1.047900140277919</v>
       </c>
       <c r="N15">
-        <v>1.007521023796716</v>
+        <v>1.014899027416474</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9839731824752789</v>
+        <v>1.026697172199692</v>
       </c>
       <c r="D16">
-        <v>0.9947781551540418</v>
+        <v>1.029646047649559</v>
       </c>
       <c r="E16">
-        <v>1.001351698308157</v>
+        <v>1.036072289033044</v>
       </c>
       <c r="F16">
-        <v>1.00667966868237</v>
+        <v>1.044935032390928</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040822975276477</v>
+        <v>1.032701138994243</v>
       </c>
       <c r="J16">
-        <v>1.012758552303398</v>
+        <v>1.033078481791891</v>
       </c>
       <c r="K16">
-        <v>1.009205378964336</v>
+        <v>1.033106359744803</v>
       </c>
       <c r="L16">
-        <v>1.015659984114967</v>
+        <v>1.039509543994204</v>
       </c>
       <c r="M16">
-        <v>1.020893031449152</v>
+        <v>1.048341000862409</v>
       </c>
       <c r="N16">
-        <v>1.008074003620994</v>
+        <v>1.015010283083196</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9857543174261761</v>
+        <v>1.027044091625089</v>
       </c>
       <c r="D17">
-        <v>0.9962696520055235</v>
+        <v>1.029958311326356</v>
       </c>
       <c r="E17">
-        <v>1.002823223012569</v>
+        <v>1.036382251002301</v>
       </c>
       <c r="F17">
-        <v>1.008330623744763</v>
+        <v>1.045283856186034</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04119070804007</v>
+        <v>1.032746075351979</v>
       </c>
       <c r="J17">
-        <v>1.013771161965804</v>
+        <v>1.033286452054123</v>
       </c>
       <c r="K17">
-        <v>1.010343405408713</v>
+        <v>1.033345343150073</v>
       </c>
       <c r="L17">
-        <v>1.016781931322745</v>
+        <v>1.039746759708821</v>
       </c>
       <c r="M17">
-        <v>1.022194146751408</v>
+        <v>1.048617658184347</v>
       </c>
       <c r="N17">
-        <v>1.008416555907308</v>
+        <v>1.015080048603846</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9867856489476903</v>
+        <v>1.027246512227213</v>
       </c>
       <c r="D18">
-        <v>0.9971340393238641</v>
+        <v>1.030140549971705</v>
       </c>
       <c r="E18">
-        <v>1.003676137400157</v>
+        <v>1.036563153696551</v>
       </c>
       <c r="F18">
-        <v>1.009287436611251</v>
+        <v>1.045487436505051</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041402444555795</v>
+        <v>1.032772133348316</v>
       </c>
       <c r="J18">
-        <v>1.014357344622967</v>
+        <v>1.033407751238477</v>
       </c>
       <c r="K18">
-        <v>1.011002427039853</v>
+        <v>1.033484760837482</v>
       </c>
       <c r="L18">
-        <v>1.017431716201677</v>
+        <v>1.039885152559215</v>
       </c>
       <c r="M18">
-        <v>1.022947759636286</v>
+        <v>1.048779069448559</v>
       </c>
       <c r="N18">
-        <v>1.008614837399596</v>
+        <v>1.015120733501683</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9871360396080219</v>
+        <v>1.027315543977904</v>
       </c>
       <c r="D19">
-        <v>0.9974278395459059</v>
+        <v>1.030202705640728</v>
       </c>
       <c r="E19">
-        <v>1.003966055178259</v>
+        <v>1.036624854959247</v>
       </c>
       <c r="F19">
-        <v>1.009612654034131</v>
+        <v>1.045556871976095</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041474177451825</v>
+        <v>1.032780992546867</v>
       </c>
       <c r="J19">
-        <v>1.014556471145863</v>
+        <v>1.033449110012835</v>
       </c>
       <c r="K19">
-        <v>1.011226337316643</v>
+        <v>1.03353230247782</v>
       </c>
       <c r="L19">
-        <v>1.017652500786632</v>
+        <v>1.039932345813039</v>
       </c>
       <c r="M19">
-        <v>1.023203833446785</v>
+        <v>1.048834113550859</v>
       </c>
       <c r="N19">
-        <v>1.008682190852174</v>
+        <v>1.015134604604596</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9855640062667463</v>
+        <v>1.027006863372419</v>
       </c>
       <c r="D20">
-        <v>0.9961102084236928</v>
+        <v>1.029924797979233</v>
       </c>
       <c r="E20">
-        <v>1.002665903901163</v>
+        <v>1.036348983924289</v>
       </c>
       <c r="F20">
-        <v>1.008154132539949</v>
+        <v>1.04524641854847</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041151539711599</v>
+        <v>1.032741269888166</v>
       </c>
       <c r="J20">
-        <v>1.013662981558022</v>
+        <v>1.033264139461652</v>
       </c>
       <c r="K20">
-        <v>1.010221801712464</v>
+        <v>1.033319700133797</v>
       </c>
       <c r="L20">
-        <v>1.016662038021472</v>
+        <v>1.039721305704981</v>
       </c>
       <c r="M20">
-        <v>1.022055100869809</v>
+        <v>1.048587971144924</v>
       </c>
       <c r="N20">
-        <v>1.008379961584436</v>
+        <v>1.01507256426353</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9803627765932158</v>
+        <v>1.026004119458217</v>
       </c>
       <c r="D21">
-        <v>0.9917599525910138</v>
+        <v>1.029022478545173</v>
       </c>
       <c r="E21">
-        <v>0.998374582110483</v>
+        <v>1.035453363307348</v>
       </c>
       <c r="F21">
-        <v>1.003338854501994</v>
+        <v>1.044238487034963</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040069945706436</v>
+        <v>1.032610335201274</v>
       </c>
       <c r="J21">
-        <v>1.010705100734411</v>
+        <v>1.032662710308642</v>
       </c>
       <c r="K21">
-        <v>1.006899135065593</v>
+        <v>1.032628779261499</v>
       </c>
       <c r="L21">
-        <v>1.013386814103439</v>
+        <v>1.039035536985211</v>
       </c>
       <c r="M21">
-        <v>1.018257246160038</v>
+        <v>1.047788232207997</v>
       </c>
       <c r="N21">
-        <v>1.007379251163874</v>
+        <v>1.014870770324716</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9770200419189269</v>
+        <v>1.025374279688353</v>
       </c>
       <c r="D22">
-        <v>0.9889715548427186</v>
+        <v>1.028456071560941</v>
       </c>
       <c r="E22">
-        <v>0.9956249256360585</v>
+        <v>1.034891227628996</v>
       </c>
       <c r="F22">
-        <v>1.000252467892258</v>
+        <v>1.043605829253905</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039364212122585</v>
+        <v>1.032526640409728</v>
       </c>
       <c r="J22">
-        <v>1.008803065152689</v>
+        <v>1.032284518774835</v>
       </c>
       <c r="K22">
-        <v>1.004764699626866</v>
+        <v>1.032194583598072</v>
       </c>
       <c r="L22">
-        <v>1.011283554710721</v>
+        <v>1.03860463673616</v>
       </c>
       <c r="M22">
-        <v>1.015818925003007</v>
+        <v>1.047285790836067</v>
       </c>
       <c r="N22">
-        <v>1.006735629736606</v>
+        <v>1.014743824090581</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9787991779666988</v>
+        <v>1.025708109966431</v>
       </c>
       <c r="D23">
-        <v>0.9904549312270632</v>
+        <v>1.028756247139688</v>
       </c>
       <c r="E23">
-        <v>0.9970875996946011</v>
+        <v>1.03518913326497</v>
       </c>
       <c r="F23">
-        <v>1.001894363351049</v>
+        <v>1.04394111122482</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039740813802317</v>
+        <v>1.032571138359022</v>
       </c>
       <c r="J23">
-        <v>1.009815488301835</v>
+        <v>1.032485009530749</v>
       </c>
       <c r="K23">
-        <v>1.005900621516223</v>
+        <v>1.032424738235042</v>
       </c>
       <c r="L23">
-        <v>1.012402818483274</v>
+        <v>1.038833039100891</v>
       </c>
       <c r="M23">
-        <v>1.017116441939305</v>
+        <v>1.047552107402952</v>
       </c>
       <c r="N23">
-        <v>1.007078229658745</v>
+        <v>1.014811127214245</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9856500230503811</v>
+        <v>1.027023685006206</v>
       </c>
       <c r="D24">
-        <v>0.9961822713209004</v>
+        <v>1.02993994090782</v>
       </c>
       <c r="E24">
-        <v>1.002737006297278</v>
+        <v>1.036364015554087</v>
       </c>
       <c r="F24">
-        <v>1.008233900324421</v>
+        <v>1.045263334643161</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041169246700426</v>
+        <v>1.032743441742052</v>
       </c>
       <c r="J24">
-        <v>1.013711877373996</v>
+        <v>1.033274221581509</v>
       </c>
       <c r="K24">
-        <v>1.01027676390449</v>
+        <v>1.033331287039039</v>
       </c>
       <c r="L24">
-        <v>1.016716226921547</v>
+        <v>1.039732807184399</v>
       </c>
       <c r="M24">
-        <v>1.02211794608717</v>
+        <v>1.048601385311409</v>
       </c>
       <c r="N24">
-        <v>1.008396501684376</v>
+        <v>1.015075946139992</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9933047822934448</v>
+        <v>1.028553013836689</v>
       </c>
       <c r="D25">
-        <v>1.002611039127229</v>
+        <v>1.031317489048049</v>
       </c>
       <c r="E25">
-        <v>1.00908221872236</v>
+        <v>1.037731597173316</v>
       </c>
       <c r="F25">
-        <v>1.015350345595366</v>
+        <v>1.046802296489837</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042719136400774</v>
+        <v>1.032937401105401</v>
       </c>
       <c r="J25">
-        <v>1.018059587311806</v>
+        <v>1.03418980485091</v>
       </c>
       <c r="K25">
-        <v>1.015168956848997</v>
+        <v>1.034384172547119</v>
       </c>
       <c r="L25">
-        <v>1.021541162201614</v>
+        <v>1.040778068344</v>
       </c>
       <c r="M25">
-        <v>1.027714950662608</v>
+        <v>1.049820645440163</v>
       </c>
       <c r="N25">
-        <v>1.009866831165726</v>
+        <v>1.015382932445168</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_232/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_232/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029774912949598</v>
+        <v>0.9991926437994537</v>
       </c>
       <c r="D2">
-        <v>1.032419332480934</v>
+        <v>1.007577561523825</v>
       </c>
       <c r="E2">
-        <v>1.038825699602864</v>
+        <v>1.013987187960496</v>
       </c>
       <c r="F2">
-        <v>1.048033410507566</v>
+        <v>1.020848722867223</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033087251084681</v>
+        <v>1.043872605770231</v>
       </c>
       <c r="J2">
-        <v>1.034919824371565</v>
+        <v>1.021397529596223</v>
       </c>
       <c r="K2">
-        <v>1.035224617337204</v>
+        <v>1.018932328737657</v>
       </c>
       <c r="L2">
-        <v>1.041612629256448</v>
+        <v>1.025255038515357</v>
       </c>
       <c r="M2">
-        <v>1.050794385074352</v>
+        <v>1.032025046455818</v>
       </c>
       <c r="N2">
-        <v>1.015627508519687</v>
+        <v>1.010995038487086</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030663321431301</v>
+        <v>1.003350901232727</v>
       </c>
       <c r="D3">
-        <v>1.033221146077235</v>
+        <v>1.01109683270053</v>
       </c>
       <c r="E3">
-        <v>1.039622013149809</v>
+        <v>1.017464513362427</v>
       </c>
       <c r="F3">
-        <v>1.04892939061912</v>
+        <v>1.024745299956435</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033193230826109</v>
+        <v>1.044664031995965</v>
       </c>
       <c r="J3">
-        <v>1.035449719230273</v>
+        <v>1.02375063226542</v>
       </c>
       <c r="K3">
-        <v>1.035835217861591</v>
+        <v>1.021589669406202</v>
       </c>
       <c r="L3">
-        <v>1.042219072121332</v>
+        <v>1.027878704698725</v>
       </c>
       <c r="M3">
-        <v>1.051502111559733</v>
+        <v>1.035071055308163</v>
       </c>
       <c r="N3">
-        <v>1.015804924840287</v>
+        <v>1.011789948373439</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031238729547898</v>
+        <v>1.005990350456782</v>
       </c>
       <c r="D4">
-        <v>1.033740786047126</v>
+        <v>1.013335847356487</v>
       </c>
       <c r="E4">
-        <v>1.040138149967664</v>
+        <v>1.019677595749348</v>
       </c>
       <c r="F4">
-        <v>1.049510103153897</v>
+        <v>1.027224593300221</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03326049611559</v>
+        <v>1.045155380659714</v>
       </c>
       <c r="J4">
-        <v>1.035792513870385</v>
+        <v>1.025242053882236</v>
       </c>
       <c r="K4">
-        <v>1.0362304775236</v>
+        <v>1.023275941395539</v>
       </c>
       <c r="L4">
-        <v>1.042611694556565</v>
+        <v>1.029544191590668</v>
       </c>
       <c r="M4">
-        <v>1.051960375538809</v>
+        <v>1.037005180315496</v>
       </c>
       <c r="N4">
-        <v>1.015919644888917</v>
+        <v>1.012293553695174</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031480761043106</v>
+        <v>1.007088111888087</v>
       </c>
       <c r="D5">
-        <v>1.033959435661628</v>
+        <v>1.014268268227632</v>
       </c>
       <c r="E5">
-        <v>1.040355340196899</v>
+        <v>1.020599395648783</v>
       </c>
       <c r="F5">
-        <v>1.049754461231469</v>
+        <v>1.028257136210443</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033288460060124</v>
+        <v>1.045357054160702</v>
       </c>
       <c r="J5">
-        <v>1.035936603739297</v>
+        <v>1.025861782747963</v>
       </c>
       <c r="K5">
-        <v>1.036396681729117</v>
+        <v>1.023977124153798</v>
       </c>
       <c r="L5">
-        <v>1.042776802783341</v>
+        <v>1.03023687082595</v>
       </c>
       <c r="M5">
-        <v>1.052153104253435</v>
+        <v>1.037809716993431</v>
       </c>
       <c r="N5">
-        <v>1.015967853557257</v>
+        <v>1.012502761299885</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031521406775124</v>
+        <v>1.007271746487631</v>
       </c>
       <c r="D6">
-        <v>1.033996159161883</v>
+        <v>1.014424314151513</v>
       </c>
       <c r="E6">
-        <v>1.040391819442016</v>
+        <v>1.020753674498952</v>
       </c>
       <c r="F6">
-        <v>1.049795503261074</v>
+        <v>1.028429941766407</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033293136876411</v>
+        <v>1.045390631555504</v>
       </c>
       <c r="J6">
-        <v>1.035960795796598</v>
+        <v>1.025965417672495</v>
       </c>
       <c r="K6">
-        <v>1.036424590280124</v>
+        <v>1.024094409080075</v>
       </c>
       <c r="L6">
-        <v>1.04280452806037</v>
+        <v>1.030352741559242</v>
       </c>
       <c r="M6">
-        <v>1.052185468579982</v>
+        <v>1.037944306835723</v>
       </c>
       <c r="N6">
-        <v>1.015975946840116</v>
+        <v>1.012537742982706</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031241963075784</v>
+        <v>1.006005064895893</v>
       </c>
       <c r="D7">
-        <v>1.033743706897807</v>
+        <v>1.013348340862134</v>
       </c>
       <c r="E7">
-        <v>1.04014105126556</v>
+        <v>1.019689946244131</v>
       </c>
       <c r="F7">
-        <v>1.049513367390573</v>
+        <v>1.027238428099166</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033260871007246</v>
+        <v>1.045158094539754</v>
       </c>
       <c r="J7">
-        <v>1.035794439290257</v>
+        <v>1.02525036301253</v>
       </c>
       <c r="K7">
-        <v>1.036232698208443</v>
+        <v>1.023285340702399</v>
       </c>
       <c r="L7">
-        <v>1.042613900546928</v>
+        <v>1.029553476359149</v>
       </c>
       <c r="M7">
-        <v>1.051962950498327</v>
+        <v>1.037015963920145</v>
       </c>
       <c r="N7">
-        <v>1.015920289133235</v>
+        <v>1.012296358906206</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030075040375917</v>
+        <v>1.000608798496007</v>
       </c>
       <c r="D8">
-        <v>1.032690139818247</v>
+        <v>1.008774996534974</v>
       </c>
       <c r="E8">
-        <v>1.039094636626097</v>
+        <v>1.01517019145226</v>
       </c>
       <c r="F8">
-        <v>1.048336012708718</v>
+        <v>1.022174490936515</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033123338459763</v>
+        <v>1.044144419151151</v>
       </c>
       <c r="J8">
-        <v>1.035098921245864</v>
+        <v>1.022199355531334</v>
       </c>
       <c r="K8">
-        <v>1.03543093865333</v>
+        <v>1.019837402499958</v>
       </c>
       <c r="L8">
-        <v>1.041817534491977</v>
+        <v>1.026148520135906</v>
       </c>
       <c r="M8">
-        <v>1.051033497886164</v>
+        <v>1.033062243764672</v>
       </c>
       <c r="N8">
-        <v>1.015687483528324</v>
+        <v>1.011265949865972</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028023034378818</v>
+        <v>0.9906886912762677</v>
       </c>
       <c r="D9">
-        <v>1.030839919320245</v>
+        <v>1.00041040771283</v>
       </c>
       <c r="E9">
-        <v>1.037257446880323</v>
+        <v>1.00690970828966</v>
       </c>
       <c r="F9">
-        <v>1.046268742833465</v>
+        <v>1.012914234744285</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032870976806158</v>
+        <v>1.042195429286284</v>
       </c>
       <c r="J9">
-        <v>1.033872747981782</v>
+        <v>1.016574595534462</v>
       </c>
       <c r="K9">
-        <v>1.034019422339923</v>
+        <v>1.01349682984568</v>
       </c>
       <c r="L9">
-        <v>1.040415928153544</v>
+        <v>1.019891666287235</v>
       </c>
       <c r="M9">
-        <v>1.049398182545347</v>
+        <v>1.025801205508216</v>
       </c>
       <c r="N9">
-        <v>1.015276655972096</v>
+        <v>1.009364721323163</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026657976248269</v>
+        <v>0.9837708582736333</v>
       </c>
       <c r="D10">
-        <v>1.029610772489593</v>
+        <v>0.9946088372701928</v>
       </c>
       <c r="E10">
-        <v>1.036037274880895</v>
+        <v>1.001184661663814</v>
       </c>
       <c r="F10">
-        <v>1.044895627857534</v>
+        <v>1.006492250352324</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032696040116329</v>
+        <v>1.0407810422359</v>
       </c>
       <c r="J10">
-        <v>1.033054978318899</v>
+        <v>1.012643507768255</v>
       </c>
       <c r="K10">
-        <v>1.033079355423967</v>
+        <v>1.009076117879339</v>
       </c>
       <c r="L10">
-        <v>1.039482740281818</v>
+        <v>1.01553255957077</v>
       </c>
       <c r="M10">
-        <v>1.048309741603813</v>
+        <v>1.020745266318086</v>
       </c>
       <c r="N10">
-        <v>1.015002397815572</v>
+        <v>1.008035083463602</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026067606609266</v>
+        <v>0.9806964375281109</v>
       </c>
       <c r="D11">
-        <v>1.029079586828132</v>
+        <v>0.9920385991991642</v>
       </c>
       <c r="E11">
-        <v>1.035510043749927</v>
+        <v>0.9986493983415006</v>
       </c>
       <c r="F11">
-        <v>1.044302276960854</v>
+        <v>1.003647282039356</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03261870997829</v>
+        <v>1.040139950423467</v>
       </c>
       <c r="J11">
-        <v>1.032700813648829</v>
+        <v>1.010894916289059</v>
       </c>
       <c r="K11">
-        <v>1.032672536542329</v>
+        <v>1.007112234041931</v>
       </c>
       <c r="L11">
-        <v>1.039078964605488</v>
+        <v>1.013596830057104</v>
       </c>
       <c r="M11">
-        <v>1.04783887302388</v>
+        <v>1.018500742190976</v>
       </c>
       <c r="N11">
-        <v>1.014883558062659</v>
+        <v>1.007443477179208</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025848424971805</v>
+        <v>0.9795419848877206</v>
       </c>
       <c r="D12">
-        <v>1.028882439184785</v>
+        <v>0.9910747397868381</v>
       </c>
       <c r="E12">
-        <v>1.03531437527732</v>
+        <v>0.9976988203813979</v>
       </c>
       <c r="F12">
-        <v>1.04408206459534</v>
+        <v>1.002580410500527</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032589749115616</v>
+        <v>1.039897391336758</v>
       </c>
       <c r="J12">
-        <v>1.032569252525049</v>
+        <v>1.010238129704172</v>
       </c>
       <c r="K12">
-        <v>1.032521462720734</v>
+        <v>1.00637495489213</v>
       </c>
       <c r="L12">
-        <v>1.038929030854407</v>
+        <v>1.01287024055444</v>
       </c>
       <c r="M12">
-        <v>1.047664038097418</v>
+        <v>1.017658340334012</v>
       </c>
       <c r="N12">
-        <v>1.01483940348551</v>
+        <v>1.007221242852826</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025895435271455</v>
+        <v>0.9797901937544305</v>
       </c>
       <c r="D13">
-        <v>1.028924720830649</v>
+        <v>0.9912819124864998</v>
       </c>
       <c r="E13">
-        <v>1.035356339170591</v>
+        <v>0.997903130794019</v>
       </c>
       <c r="F13">
-        <v>1.044129292514795</v>
+        <v>1.002809724168484</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03259597203467</v>
+        <v>1.039949623590911</v>
       </c>
       <c r="J13">
-        <v>1.032597473202886</v>
+        <v>1.010379347368607</v>
       </c>
       <c r="K13">
-        <v>1.032553866880649</v>
+        <v>1.006533462676212</v>
       </c>
       <c r="L13">
-        <v>1.038961190027011</v>
+        <v>1.013026444716223</v>
       </c>
       <c r="M13">
-        <v>1.047701537743474</v>
+        <v>1.017839437830722</v>
       </c>
       <c r="N13">
-        <v>1.014848875337237</v>
+        <v>1.007269027048362</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026049486777224</v>
+        <v>0.9806012683073048</v>
       </c>
       <c r="D14">
-        <v>1.029063287302293</v>
+        <v>0.9919591156705548</v>
       </c>
       <c r="E14">
-        <v>1.035493866282993</v>
+        <v>0.9985710066562102</v>
       </c>
       <c r="F14">
-        <v>1.044284070362635</v>
+        <v>1.003559303486723</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032616320895841</v>
+        <v>1.0401199915114</v>
       </c>
       <c r="J14">
-        <v>1.032689938933882</v>
+        <v>1.010840776514099</v>
       </c>
       <c r="K14">
-        <v>1.032660047974239</v>
+        <v>1.007051451585149</v>
       </c>
       <c r="L14">
-        <v>1.039066570078379</v>
+        <v>1.013536926420996</v>
       </c>
       <c r="M14">
-        <v>1.047824419746439</v>
+        <v>1.018431288467596</v>
       </c>
       <c r="N14">
-        <v>1.014879908477887</v>
+        <v>1.007425158534306</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026144417336325</v>
+        <v>0.9810993258982632</v>
       </c>
       <c r="D15">
-        <v>1.02914868371292</v>
+        <v>0.9923751361025759</v>
       </c>
       <c r="E15">
-        <v>1.035578623672863</v>
+        <v>0.9989813191153799</v>
       </c>
       <c r="F15">
-        <v>1.044379458613344</v>
+        <v>1.004019787797228</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032628827112561</v>
+        <v>1.040224370067967</v>
       </c>
       <c r="J15">
-        <v>1.032746909018462</v>
+        <v>1.01112410372154</v>
       </c>
       <c r="K15">
-        <v>1.032725474569643</v>
+        <v>1.007369556837584</v>
       </c>
       <c r="L15">
-        <v>1.039131504408855</v>
+        <v>1.013850437265624</v>
       </c>
       <c r="M15">
-        <v>1.047900140277919</v>
+        <v>1.018794784420332</v>
       </c>
       <c r="N15">
-        <v>1.014899027416474</v>
+        <v>1.007521023796716</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026697172199692</v>
+        <v>0.9839731824752783</v>
       </c>
       <c r="D16">
-        <v>1.029646047649559</v>
+        <v>0.9947781551540411</v>
       </c>
       <c r="E16">
-        <v>1.036072289033044</v>
+        <v>1.001351698308156</v>
       </c>
       <c r="F16">
-        <v>1.044935032390928</v>
+        <v>1.006679668682369</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032701138994243</v>
+        <v>1.040822975276477</v>
       </c>
       <c r="J16">
-        <v>1.033078481791891</v>
+        <v>1.012758552303397</v>
       </c>
       <c r="K16">
-        <v>1.033106359744803</v>
+        <v>1.009205378964335</v>
       </c>
       <c r="L16">
-        <v>1.039509543994204</v>
+        <v>1.015659984114967</v>
       </c>
       <c r="M16">
-        <v>1.048341000862409</v>
+        <v>1.020893031449152</v>
       </c>
       <c r="N16">
-        <v>1.015010283083196</v>
+        <v>1.008074003620993</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027044091625089</v>
+        <v>0.9857543174261746</v>
       </c>
       <c r="D17">
-        <v>1.029958311326356</v>
+        <v>0.9962696520055223</v>
       </c>
       <c r="E17">
-        <v>1.036382251002301</v>
+        <v>1.002823223012568</v>
       </c>
       <c r="F17">
-        <v>1.045283856186034</v>
+        <v>1.008330623744762</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032746075351979</v>
+        <v>1.04119070804007</v>
       </c>
       <c r="J17">
-        <v>1.033286452054123</v>
+        <v>1.013771161965803</v>
       </c>
       <c r="K17">
-        <v>1.033345343150073</v>
+        <v>1.010343405408711</v>
       </c>
       <c r="L17">
-        <v>1.039746759708821</v>
+        <v>1.016781931322744</v>
       </c>
       <c r="M17">
-        <v>1.048617658184347</v>
+        <v>1.022194146751407</v>
       </c>
       <c r="N17">
-        <v>1.015080048603846</v>
+        <v>1.008416555907308</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027246512227213</v>
+        <v>0.9867856489476893</v>
       </c>
       <c r="D18">
-        <v>1.030140549971705</v>
+        <v>0.9971340393238636</v>
       </c>
       <c r="E18">
-        <v>1.036563153696551</v>
+        <v>1.003676137400156</v>
       </c>
       <c r="F18">
-        <v>1.045487436505051</v>
+        <v>1.009287436611251</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032772133348316</v>
+        <v>1.041402444555795</v>
       </c>
       <c r="J18">
-        <v>1.033407751238477</v>
+        <v>1.014357344622966</v>
       </c>
       <c r="K18">
-        <v>1.033484760837482</v>
+        <v>1.011002427039853</v>
       </c>
       <c r="L18">
-        <v>1.039885152559215</v>
+        <v>1.017431716201676</v>
       </c>
       <c r="M18">
-        <v>1.048779069448559</v>
+        <v>1.022947759636285</v>
       </c>
       <c r="N18">
-        <v>1.015120733501683</v>
+        <v>1.008614837399596</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027315543977904</v>
+        <v>0.9871360396080223</v>
       </c>
       <c r="D19">
-        <v>1.030202705640728</v>
+        <v>0.9974278395459063</v>
       </c>
       <c r="E19">
-        <v>1.036624854959247</v>
+        <v>1.003966055178259</v>
       </c>
       <c r="F19">
-        <v>1.045556871976095</v>
+        <v>1.009612654034131</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032780992546867</v>
+        <v>1.041474177451825</v>
       </c>
       <c r="J19">
-        <v>1.033449110012835</v>
+        <v>1.014556471145863</v>
       </c>
       <c r="K19">
-        <v>1.03353230247782</v>
+        <v>1.011226337316643</v>
       </c>
       <c r="L19">
-        <v>1.039932345813039</v>
+        <v>1.017652500786633</v>
       </c>
       <c r="M19">
-        <v>1.048834113550859</v>
+        <v>1.023203833446786</v>
       </c>
       <c r="N19">
-        <v>1.015134604604596</v>
+        <v>1.008682190852175</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027006863372419</v>
+        <v>0.9855640062667455</v>
       </c>
       <c r="D20">
-        <v>1.029924797979233</v>
+        <v>0.996110208423692</v>
       </c>
       <c r="E20">
-        <v>1.036348983924289</v>
+        <v>1.002665903901162</v>
       </c>
       <c r="F20">
-        <v>1.04524641854847</v>
+        <v>1.008154132539948</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032741269888166</v>
+        <v>1.041151539711599</v>
       </c>
       <c r="J20">
-        <v>1.033264139461652</v>
+        <v>1.013662981558021</v>
       </c>
       <c r="K20">
-        <v>1.033319700133797</v>
+        <v>1.010221801712463</v>
       </c>
       <c r="L20">
-        <v>1.039721305704981</v>
+        <v>1.016662038021471</v>
       </c>
       <c r="M20">
-        <v>1.048587971144924</v>
+        <v>1.022055100869808</v>
       </c>
       <c r="N20">
-        <v>1.01507256426353</v>
+        <v>1.008379961584436</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026004119458217</v>
+        <v>0.9803627765932152</v>
       </c>
       <c r="D21">
-        <v>1.029022478545173</v>
+        <v>0.9917599525910131</v>
       </c>
       <c r="E21">
-        <v>1.035453363307348</v>
+        <v>0.9983745821104821</v>
       </c>
       <c r="F21">
-        <v>1.044238487034963</v>
+        <v>1.003338854501993</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032610335201274</v>
+        <v>1.040069945706435</v>
       </c>
       <c r="J21">
-        <v>1.032662710308642</v>
+        <v>1.010705100734411</v>
       </c>
       <c r="K21">
-        <v>1.032628779261499</v>
+        <v>1.006899135065592</v>
       </c>
       <c r="L21">
-        <v>1.039035536985211</v>
+        <v>1.013386814103438</v>
       </c>
       <c r="M21">
-        <v>1.047788232207997</v>
+        <v>1.018257246160038</v>
       </c>
       <c r="N21">
-        <v>1.014870770324716</v>
+        <v>1.007379251163873</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025374279688353</v>
+        <v>0.9770200419189263</v>
       </c>
       <c r="D22">
-        <v>1.028456071560941</v>
+        <v>0.9889715548427178</v>
       </c>
       <c r="E22">
-        <v>1.034891227628996</v>
+        <v>0.995624925636058</v>
       </c>
       <c r="F22">
-        <v>1.043605829253905</v>
+        <v>1.000252467892258</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032526640409728</v>
+        <v>1.039364212122585</v>
       </c>
       <c r="J22">
-        <v>1.032284518774835</v>
+        <v>1.008803065152689</v>
       </c>
       <c r="K22">
-        <v>1.032194583598072</v>
+        <v>1.004764699626865</v>
       </c>
       <c r="L22">
-        <v>1.03860463673616</v>
+        <v>1.01128355471072</v>
       </c>
       <c r="M22">
-        <v>1.047285790836067</v>
+        <v>1.015818925003006</v>
       </c>
       <c r="N22">
-        <v>1.014743824090581</v>
+        <v>1.006735629736606</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025708109966431</v>
+        <v>0.9787991779666989</v>
       </c>
       <c r="D23">
-        <v>1.028756247139688</v>
+        <v>0.9904549312270629</v>
       </c>
       <c r="E23">
-        <v>1.03518913326497</v>
+        <v>0.997087599694601</v>
       </c>
       <c r="F23">
-        <v>1.04394111122482</v>
+        <v>1.001894363351049</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032571138359022</v>
+        <v>1.039740813802317</v>
       </c>
       <c r="J23">
-        <v>1.032485009530749</v>
+        <v>1.009815488301835</v>
       </c>
       <c r="K23">
-        <v>1.032424738235042</v>
+        <v>1.005900621516223</v>
       </c>
       <c r="L23">
-        <v>1.038833039100891</v>
+        <v>1.012402818483274</v>
       </c>
       <c r="M23">
-        <v>1.047552107402952</v>
+        <v>1.017116441939305</v>
       </c>
       <c r="N23">
-        <v>1.014811127214245</v>
+        <v>1.007078229658745</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027023685006206</v>
+        <v>0.9856500230503817</v>
       </c>
       <c r="D24">
-        <v>1.02993994090782</v>
+        <v>0.9961822713209009</v>
       </c>
       <c r="E24">
-        <v>1.036364015554087</v>
+        <v>1.002737006297279</v>
       </c>
       <c r="F24">
-        <v>1.045263334643161</v>
+        <v>1.008233900324421</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032743441742052</v>
+        <v>1.041169246700426</v>
       </c>
       <c r="J24">
-        <v>1.033274221581509</v>
+        <v>1.013711877373996</v>
       </c>
       <c r="K24">
-        <v>1.033331287039039</v>
+        <v>1.010276763904491</v>
       </c>
       <c r="L24">
-        <v>1.039732807184399</v>
+        <v>1.016716226921547</v>
       </c>
       <c r="M24">
-        <v>1.048601385311409</v>
+        <v>1.022117946087171</v>
       </c>
       <c r="N24">
-        <v>1.015075946139992</v>
+        <v>1.008396501684376</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028553013836689</v>
+        <v>0.9933047822934438</v>
       </c>
       <c r="D25">
-        <v>1.031317489048049</v>
+        <v>1.002611039127228</v>
       </c>
       <c r="E25">
-        <v>1.037731597173316</v>
+        <v>1.00908221872236</v>
       </c>
       <c r="F25">
-        <v>1.046802296489837</v>
+        <v>1.015350345595365</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032937401105401</v>
+        <v>1.042719136400774</v>
       </c>
       <c r="J25">
-        <v>1.03418980485091</v>
+        <v>1.018059587311805</v>
       </c>
       <c r="K25">
-        <v>1.034384172547119</v>
+        <v>1.015168956848996</v>
       </c>
       <c r="L25">
-        <v>1.040778068344</v>
+        <v>1.021541162201614</v>
       </c>
       <c r="M25">
-        <v>1.049820645440163</v>
+        <v>1.027714950662607</v>
       </c>
       <c r="N25">
-        <v>1.015382932445168</v>
+        <v>1.009866831165726</v>
       </c>
     </row>
   </sheetData>
